--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H2">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I2">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J2">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>46.25093466666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N2">
-        <v>138.752804</v>
+        <v>0.029549</v>
       </c>
       <c r="O2">
-        <v>0.9569015955251317</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P2">
-        <v>0.9569015955251318</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q2">
-        <v>31.13313832382489</v>
+        <v>0.01413365442088889</v>
       </c>
       <c r="R2">
-        <v>280.198244914424</v>
+        <v>0.127202889788</v>
       </c>
       <c r="S2">
-        <v>0.3131810533191636</v>
+        <v>0.0001009114940911929</v>
       </c>
       <c r="T2">
-        <v>0.3131810533191637</v>
+        <v>0.0001009114940911929</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H3">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I3">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J3">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.066797333333334</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N3">
-        <v>6.200392000000001</v>
+        <v>138.752804</v>
       </c>
       <c r="O3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q3">
-        <v>1.391234311905778</v>
+        <v>66.36719285476089</v>
       </c>
       <c r="R3">
-        <v>12.521108807152</v>
+        <v>597.304735692848</v>
       </c>
       <c r="S3">
-        <v>0.01399499859874339</v>
+        <v>0.4738486162300738</v>
       </c>
       <c r="T3">
-        <v>0.01399499859874339</v>
+        <v>0.4738486162300737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H4">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I4">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J4">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01632333333333333</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N4">
-        <v>0.04897</v>
+        <v>7.823689</v>
       </c>
       <c r="O4">
-        <v>0.0003377190931065126</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P4">
-        <v>0.0003377190931065127</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q4">
-        <v>0.01098781242444444</v>
+        <v>3.742167810163111</v>
       </c>
       <c r="R4">
-        <v>0.09889031182000001</v>
+        <v>33.679510291468</v>
       </c>
       <c r="S4">
-        <v>0.0001105309279446305</v>
+        <v>0.02671833721259031</v>
       </c>
       <c r="T4">
-        <v>0.0001105309279446305</v>
+        <v>0.02671833721259031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9964423333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H5">
-        <v>2.989327</v>
+        <v>4.304812</v>
       </c>
       <c r="I5">
-        <v>0.4844823769162026</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J5">
-        <v>0.4844823769162027</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>46.25093466666667</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N5">
-        <v>138.752804</v>
+        <v>0.120943</v>
       </c>
       <c r="O5">
-        <v>0.9569015955251317</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P5">
-        <v>0.9569015955251318</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q5">
-        <v>46.08638925810089</v>
+        <v>0.05784854196844445</v>
       </c>
       <c r="R5">
-        <v>414.777503322908</v>
+        <v>0.520636877716</v>
       </c>
       <c r="S5">
-        <v>0.4636019594749225</v>
+        <v>0.0004130271356009052</v>
       </c>
       <c r="T5">
-        <v>0.4636019594749226</v>
+        <v>0.0004130271356009051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H6">
         <v>2.989327</v>
       </c>
       <c r="I6">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J6">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.066797333333334</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N6">
-        <v>6.200392000000001</v>
+        <v>0.029549</v>
       </c>
       <c r="O6">
-        <v>0.04276068538176182</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P6">
-        <v>0.04276068538176182</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q6">
-        <v>2.059444357353778</v>
+        <v>0.00981462483588889</v>
       </c>
       <c r="R6">
-        <v>18.534999216184</v>
+        <v>0.088331623523</v>
       </c>
       <c r="S6">
-        <v>0.02071679849232189</v>
+        <v>7.007447802532225E-05</v>
       </c>
       <c r="T6">
-        <v>0.02071679849232189</v>
+        <v>7.007447802532223E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H7">
         <v>2.989327</v>
       </c>
       <c r="I7">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J7">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01632333333333333</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N7">
-        <v>0.04897</v>
+        <v>138.752804</v>
       </c>
       <c r="O7">
-        <v>0.0003377190931065126</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P7">
-        <v>0.0003377190931065127</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q7">
-        <v>0.01626526035444444</v>
+        <v>46.08638925810089</v>
       </c>
       <c r="R7">
-        <v>0.14638734319</v>
+        <v>414.777503322908</v>
       </c>
       <c r="S7">
-        <v>0.0001636189489582276</v>
+        <v>0.3290476941639258</v>
       </c>
       <c r="T7">
-        <v>0.0001636189489582276</v>
+        <v>0.3290476941639258</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3871376666666667</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H8">
-        <v>1.161413</v>
+        <v>2.989327</v>
       </c>
       <c r="I8">
-        <v>0.1882310402379457</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J8">
-        <v>0.1882310402379458</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.25093466666667</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N8">
-        <v>138.752804</v>
+        <v>7.823689</v>
       </c>
       <c r="O8">
-        <v>0.9569015955251317</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P8">
-        <v>0.9569015955251318</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q8">
-        <v>17.90547892800578</v>
+        <v>2.598618307478111</v>
       </c>
       <c r="R8">
-        <v>161.149310352052</v>
+        <v>23.387564767303</v>
       </c>
       <c r="S8">
-        <v>0.1801185827310455</v>
+        <v>0.01855362018706066</v>
       </c>
       <c r="T8">
-        <v>0.1801185827310456</v>
+        <v>0.01855362018706065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3871376666666667</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H9">
-        <v>1.161413</v>
+        <v>2.989327</v>
       </c>
       <c r="I9">
-        <v>0.1882310402379457</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J9">
-        <v>0.1882310402379458</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.066797333333334</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N9">
-        <v>6.200392000000001</v>
+        <v>0.120943</v>
       </c>
       <c r="O9">
-        <v>0.04276068538176182</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P9">
-        <v>0.04276068538176182</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q9">
-        <v>0.8001350970995557</v>
+        <v>0.04017090837344445</v>
       </c>
       <c r="R9">
-        <v>7.201215873896001</v>
+        <v>0.361538175361</v>
       </c>
       <c r="S9">
-        <v>0.008048888290696547</v>
+        <v>0.0002868123319170378</v>
       </c>
       <c r="T9">
-        <v>0.008048888290696551</v>
+        <v>0.0002868123319170376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4323043333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.296913</v>
+      </c>
+      <c r="I10">
+        <v>0.150960906766715</v>
+      </c>
+      <c r="J10">
+        <v>0.1509609067667149</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.009849666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.029549</v>
+      </c>
+      <c r="O10">
+        <v>0.0002013876315934659</v>
+      </c>
+      <c r="P10">
+        <v>0.0002013876315934659</v>
+      </c>
+      <c r="Q10">
+        <v>0.004258053581888889</v>
+      </c>
+      <c r="R10">
+        <v>0.038322482237</v>
+      </c>
+      <c r="S10">
+        <v>3.040165947695075E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.040165947695074E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4323043333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.296913</v>
+      </c>
+      <c r="I11">
+        <v>0.150960906766715</v>
+      </c>
+      <c r="J11">
+        <v>0.1509609067667149</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.25093466666667</v>
+      </c>
+      <c r="N11">
+        <v>138.752804</v>
+      </c>
+      <c r="O11">
+        <v>0.9456529349389956</v>
+      </c>
+      <c r="P11">
+        <v>0.9456529349389956</v>
+      </c>
+      <c r="Q11">
+        <v>19.99447947711689</v>
+      </c>
+      <c r="R11">
+        <v>179.950315294052</v>
+      </c>
+      <c r="S11">
+        <v>0.1427566245449961</v>
+      </c>
+      <c r="T11">
+        <v>0.142756624544996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4323043333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.296913</v>
+      </c>
+      <c r="I12">
+        <v>0.150960906766715</v>
+      </c>
+      <c r="J12">
+        <v>0.1509609067667149</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.607896333333333</v>
+      </c>
+      <c r="N12">
+        <v>7.823689</v>
+      </c>
+      <c r="O12">
+        <v>0.05332140505715427</v>
+      </c>
+      <c r="P12">
+        <v>0.05332140505715428</v>
+      </c>
+      <c r="Q12">
+        <v>1.127404885784111</v>
+      </c>
+      <c r="R12">
+        <v>10.146643972057</v>
+      </c>
+      <c r="S12">
+        <v>0.00804944765750331</v>
+      </c>
+      <c r="T12">
+        <v>0.008049447657503308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.3871376666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.161413</v>
-      </c>
-      <c r="I10">
-        <v>0.1882310402379457</v>
-      </c>
-      <c r="J10">
-        <v>0.1882310402379458</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.01632333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.04897</v>
-      </c>
-      <c r="O10">
-        <v>0.0003377190931065126</v>
-      </c>
-      <c r="P10">
-        <v>0.0003377190931065127</v>
-      </c>
-      <c r="Q10">
-        <v>0.006319377178888888</v>
-      </c>
-      <c r="R10">
-        <v>0.05687439461</v>
-      </c>
-      <c r="S10">
-        <v>6.356921620365452E-05</v>
-      </c>
-      <c r="T10">
-        <v>6.356921620365455E-05</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4323043333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.296913</v>
+      </c>
+      <c r="I13">
+        <v>0.150960906766715</v>
+      </c>
+      <c r="J13">
+        <v>0.1509609067667149</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.120943</v>
+      </c>
+      <c r="O13">
+        <v>0.0008242723722565416</v>
+      </c>
+      <c r="P13">
+        <v>0.0008242723722565415</v>
+      </c>
+      <c r="Q13">
+        <v>0.01742806099544444</v>
+      </c>
+      <c r="R13">
+        <v>0.156852548959</v>
+      </c>
+      <c r="S13">
+        <v>0.0001244329047385988</v>
+      </c>
+      <c r="T13">
+        <v>0.0001244329047385987</v>
       </c>
     </row>
   </sheetData>
